--- a/user_stories/03_page_de_calendrier/afficher_details_tache_du_jour_calendrier.xlsx
+++ b/user_stories/03_page_de_calendrier/afficher_details_tache_du_jour_calendrier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbochard/Code/Openclassrooms/Projet/P03_Learnathome/user_stories/03_page_de_calendrier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A45F7E9-ECDE-264D-B478-30C00715D98A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98792DE2-4EEA-2049-95F0-7357C8D7CF87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="7300" windowWidth="18340" windowHeight="9860" xr2:uid="{62F1E357-2886-4245-8D85-7C4999715EFC}"/>
+    <workbookView xWindow="12140" yWindow="5560" windowWidth="22340" windowHeight="12860" xr2:uid="{62F1E357-2886-4245-8D85-7C4999715EFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>En tant que</t>
   </si>
   <si>
-    <t>utilisateur connecté et sur la page de calendrier</t>
-  </si>
-  <si>
     <t>Je souhaite</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Alors</t>
   </si>
   <si>
-    <t>Afficher détails du jour si tâche de prévue</t>
-  </si>
-  <si>
     <t>cliquer sur un jour où il y a une tâche de prévue</t>
   </si>
   <si>
@@ -70,6 +64,9 @@
   </si>
   <si>
     <t>je vois les détails sur cette tâche pour le jour choisi</t>
+  </si>
+  <si>
+    <t>Afficher le details d'une tâche</t>
   </si>
 </sst>
 </file>
@@ -243,41 +240,41 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +593,7 @@
   <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,69 +604,69 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="6" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    <row r="8" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="10" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
